--- a/excel/stress_strain＿まとめ1.xlsx
+++ b/excel/stress_strain＿まとめ1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/stress_strain_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F362716-20A6-2445-85EE-DCDA16FF6B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFE8A99-D405-6040-91FD-6678E5FA0E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7780" yWindow="1820" windowWidth="18980" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel/stress_strain＿まとめ1.xlsx
+++ b/excel/stress_strain＿まとめ1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C315A8-08E2-FB45-9BA6-A3A404CAF10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0F8B1-7FFD-B047-A591-B9509DE7FBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="まとめ" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>lap=10</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +70,10 @@
     <rPh sb="0" eb="4">
       <t>ヒッパリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lap=30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14200,6 +14204,111 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'まとめ (2)'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lap=30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$A$4:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25.095199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.398800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.1096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.709199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.895520000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.798480000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.698419999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D7B-244C-96C1-3733923F5F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -14547,7 +14656,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'まとめ (2)'!$F$3</c:f>
+              <c:f>'まとめ (2)'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14582,7 +14691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$E$4:$E$10</c:f>
+              <c:f>'まとめ (2)'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -14612,7 +14721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$F$4:$F$10</c:f>
+              <c:f>'まとめ (2)'!$G$4:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -14652,7 +14761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'まとめ (2)'!$G$3</c:f>
+              <c:f>'まとめ (2)'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14687,7 +14796,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$E$4:$E$10</c:f>
+              <c:f>'まとめ (2)'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -14717,7 +14826,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'まとめ (2)'!$G$4:$G$10</c:f>
+              <c:f>'まとめ (2)'!$H$4:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -14749,6 +14858,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAF2-C344-8EFD-49C4ABB09E79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'まとめ (2)'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lap=30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'まとめ (2)'!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6360.6616727272722</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6226.4030060606055</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5953.7197575757573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5742.2554666666647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5420.5266424242418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5176.7991272727268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4971.0384484848473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A06-3149-A9DC-C1EEA6D18ADB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -21321,7 +21535,7 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -21353,14 +21567,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>234950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
@@ -34648,26 +34862,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B14DBF-35C8-C242-9390-F52A9DD03E05}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19">
+    <row r="3" spans="1:18" ht="19">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -34677,28 +34892,33 @@
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="19">
+    <row r="4" spans="1:18" ht="19">
       <c r="A4" s="4">
         <v>0.25</v>
       </c>
@@ -34708,28 +34928,33 @@
       <c r="C4" s="4">
         <v>21.224</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2">
+      <c r="D4" s="4">
+        <v>25.095199999999998</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2">
         <v>0.25</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5900.1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>6119.6</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="2">
+        <v>6360.6616727272722</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="19">
+    <row r="5" spans="1:18" ht="19">
       <c r="A5" s="2">
         <v>0.5</v>
       </c>
@@ -34739,19 +34964,23 @@
       <c r="C5" s="2">
         <v>20.5276</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2">
+      <c r="D5" s="2">
+        <v>24.398800000000001</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>5765.2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>5987.8</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="2">
+        <v>6226.4030060606055</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -34759,8 +34988,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="19">
+    <row r="6" spans="1:18" ht="19">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -34770,19 +35000,23 @@
       <c r="C6" s="2">
         <v>19.513000000000002</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
+        <v>23.1096</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>5493</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>5707.6</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="2">
+        <v>5953.7197575757573</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -34790,8 +35024,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="19">
+    <row r="7" spans="1:18" ht="19">
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
@@ -34801,19 +35036,23 @@
       <c r="C7" s="2">
         <v>19.003</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2">
+      <c r="D7" s="2">
+        <v>22.709199999999999</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>1.5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>5211.1000000000004</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>5435.7</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="2">
+        <v>5742.2554666666647</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -34821,8 +35060,9 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="19">
+    <row r="8" spans="1:18" ht="19">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -34832,18 +35072,22 @@
       <c r="C8" s="2">
         <v>18.425999999999998</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
+      <c r="D8" s="2">
+        <v>17.895520000000001</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>4999.8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>5177.6000000000004</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>5420.5266424242418</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -34852,8 +35096,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="19">
+    <row r="9" spans="1:18" ht="19">
       <c r="A9" s="1">
         <v>2.5</v>
       </c>
@@ -34863,18 +35108,22 @@
       <c r="C9" s="2">
         <v>17.940000000000001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
+      <c r="D9" s="2">
+        <v>19.798480000000001</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>2.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>4712.7</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>4984.6000000000004</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1">
+        <v>5176.7991272727268</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -34883,8 +35132,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="19">
+    <row r="10" spans="1:18" ht="19">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -34894,18 +35144,22 @@
       <c r="C10" s="2">
         <v>17.457999999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
+      <c r="D10" s="2">
+        <v>18.698419999999999</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>4505.8999999999996</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>4728.8</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>4971.0384484848473</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -34914,8 +35168,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="19">
+    <row r="11" spans="1:18" ht="19">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -34933,8 +35188,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="19">
+    <row r="12" spans="1:18" ht="19">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -34952,8 +35208,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="19">
+    <row r="13" spans="1:18" ht="19">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -34971,8 +35228,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="19">
+    <row r="14" spans="1:18" ht="19">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -34990,8 +35248,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="19">
+    <row r="15" spans="1:18" ht="19">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -35009,8 +35268,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="19">
+    <row r="16" spans="1:18" ht="19">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -35028,8 +35288,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="19">
+    <row r="17" spans="1:18" ht="19">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -35047,8 +35308,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="19">
+    <row r="18" spans="1:18" ht="19">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -35066,8 +35328,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="19">
+    <row r="19" spans="1:18" ht="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -35085,8 +35348,9 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="19">
+    <row r="20" spans="1:18" ht="19">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -35104,8 +35368,9 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="19">
+    <row r="21" spans="1:18" ht="19">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -35123,8 +35388,9 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="19">
+    <row r="22" spans="1:18" ht="19">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -35142,8 +35408,9 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="19">
+    <row r="23" spans="1:18" ht="19">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -35161,8 +35428,9 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="19">
+    <row r="24" spans="1:18" ht="19">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -35180,8 +35448,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="19">
+    <row r="25" spans="1:18" ht="19">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -35199,8 +35468,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="19">
+    <row r="26" spans="1:18" ht="19">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -35218,8 +35488,9 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="19">
+    <row r="27" spans="1:18" ht="19">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -35237,8 +35508,9 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="19">
+    <row r="28" spans="1:18" ht="19">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -35256,8 +35528,9 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="19">
+    <row r="29" spans="1:18" ht="19">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -35275,8 +35548,9 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="19">
+    <row r="30" spans="1:18" ht="19">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -35294,6 +35568,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
